--- a/WebRoot/static/template/budget/銷貨收入&成本预测表.xlsx
+++ b/WebRoot/static/template/budget/銷貨收入&成本预测表.xlsx
@@ -83,9 +83,6 @@
     <t>次產業</t>
   </si>
   <si>
-    <t>Main Bussiness</t>
-  </si>
-  <si>
     <t>3+3</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   <si>
     <t>銷貨收入</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>三大技術</t>
   </si>
 </sst>
 </file>
@@ -361,15 +361,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -406,6 +397,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,94 +702,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="15"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="12"/>
     </row>
     <row r="2" spans="1:65" ht="15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="16" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
       <c r="R2" s="1" t="s">
         <v>2</v>
       </c>
@@ -955,94 +955,94 @@
         <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="6" t="s">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6" t="s">
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/WebRoot/static/template/budget/銷貨收入&成本预测表.xlsx
+++ b/WebRoot/static/template/budget/銷貨收入&成本预测表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>基礎信息</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>三大技術</t>
+  </si>
+  <si>
+    <t>機種</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM3"/>
+  <dimension ref="A1:BN3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -701,7 +704,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="15">
+    <row r="1" spans="1:66" ht="15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -717,8 +720,8 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="10"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -768,9 +771,10 @@
       <c r="BJ1" s="11"/>
       <c r="BK1" s="11"/>
       <c r="BL1" s="11"/>
-      <c r="BM1" s="12"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="12"/>
     </row>
-    <row r="2" spans="1:65" ht="15">
+    <row r="2" spans="1:66" ht="15">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -784,158 +788,159 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="14"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30">
+    <row r="3" spans="1:66" ht="30">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -970,27 +975,29 @@
         <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
@@ -1000,11 +1007,11 @@
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
       <c r="AB3" s="17"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="16" t="s">
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="16"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -1015,10 +1022,10 @@
       <c r="AM3" s="16"/>
       <c r="AN3" s="16"/>
       <c r="AO3" s="16"/>
-      <c r="AP3" s="16" t="s">
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="16"/>
       <c r="AR3" s="16"/>
       <c r="AS3" s="16"/>
       <c r="AT3" s="16"/>
@@ -1029,10 +1036,10 @@
       <c r="AY3" s="16"/>
       <c r="AZ3" s="16"/>
       <c r="BA3" s="16"/>
-      <c r="BB3" s="16" t="s">
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="BC3" s="16"/>
       <c r="BD3" s="16"/>
       <c r="BE3" s="16"/>
       <c r="BF3" s="16"/>
@@ -1043,16 +1050,17 @@
       <c r="BK3" s="16"/>
       <c r="BL3" s="16"/>
       <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:BM1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="AP3:BA3"/>
-    <mergeCell ref="BB3:BM3"/>
-    <mergeCell ref="R3:AC3"/>
-    <mergeCell ref="AD3:AO3"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:BN1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="AQ3:BB3"/>
+    <mergeCell ref="BC3:BN3"/>
+    <mergeCell ref="S3:AD3"/>
+    <mergeCell ref="AE3:AP3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
